--- a/tests/excel_optical_data/optical_data_filled_template2.xlsx
+++ b/tests/excel_optical_data/optical_data_filled_template2.xlsx
@@ -59,9 +59,6 @@
     <t>Do twitches point upward? (y/n)</t>
   </si>
   <si>
-    <t>Sampling Period / Frame rate of camera (in seconds)</t>
-  </si>
-  <si>
     <t>Timestamp of when recording began (use YYYY-MM-DD HH:MM format)</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>Sampling Rate / Frame rate of camera (in Hz)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F1465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -552,7 +552,7 @@
         <v>0.61287676700000004</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -569,7 +569,7 @@
         <v>44116.194444444445</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -580,7 +580,7 @@
         <v>118.8921781</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -594,10 +594,10 @@
         <v>154.917135</v>
       </c>
       <c r="E5" s="9">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -622,10 +622,10 @@
         <v>48.204742690000003</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
